--- a/res/data/UniPortais.xlsx
+++ b/res/data/UniPortais.xlsx
@@ -1252,9 +1252,6 @@
     <t>&lt;a href="http://www.ifs.edu.br/servicos-biblioteca/biblioteca-virtual/portal-de-periodicos-capes" target="_blank"&gt;Instituto Federal de Sergipe&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="https://www5.usp.br/tag/periodico" target="_blank"&gt;Universidade de São Paulo&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="https://www.periodicos.rc.biblioteca.unesp.br" target="_blank"&gt;Universidade Estadual Paulista "Júlio de Mesquita Filho"&lt;/a&gt;</t>
   </si>
   <si>
@@ -1280,6 +1277,9 @@
   </si>
   <si>
     <t>&lt;a href="https://sistemas.uft.edu.br/periodicos/index.php/index/index" target="_blank"&gt;Universidade Federal do Tocantins&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.revistas.usp.br/wp/" target="_blank"&gt;Universidade de São Paulo&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1621,8 @@
   <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4175,7 +4175,7 @@
         <v>262</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>293</v>
@@ -4189,7 +4189,7 @@
         <v>262</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>294</v>
@@ -4203,7 +4203,7 @@
         <v>262</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>295</v>
@@ -4217,7 +4217,7 @@
         <v>262</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>296</v>
@@ -4231,7 +4231,7 @@
         <v>262</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>297</v>
@@ -4245,7 +4245,7 @@
         <v>262</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>298</v>
@@ -4259,7 +4259,7 @@
         <v>262</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>299</v>
@@ -4273,7 +4273,7 @@
         <v>262</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>300</v>
@@ -4287,7 +4287,7 @@
         <v>262</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>301</v>
@@ -4343,7 +4343,7 @@
         <v>302</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>309</v>
